--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_2_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_2_square_0_.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.26070858163132, 67.29926884388915]</t>
+          <t>[60.2473512910275, 67.31262613449297]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -619,7 +619,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.652849165911164, 52.35241868904846]</t>
+          <t>[47.653811673308354, 52.35145618165127]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.28315967478553, 67.943219853431]</t>
+          <t>[59.33879702384884, 67.8875825043677]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.807955448328265, 52.21618792085503]</t>
+          <t>[47.807431269157206, 52.216712100026086]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_2_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_2_square_0_.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.2473512910275, 67.31262613449297]</t>
+          <t>[60.20743654292065, 67.35254088259983]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -619,7 +619,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.653811673308354, 52.35145618165127]</t>
+          <t>[47.65421470506136, 52.35105314989827]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.33879702384884, 67.8875825043677]</t>
+          <t>[59.36807865013587, 67.85830087808067]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.807431269157206, 52.216712100026086]</t>
+          <t>[47.80851951839027, 52.21562385079302]</t>
         </is>
       </c>
       <c r="U3" t="n">
